--- a/docs/trends-paper/wave-counts/us-wave-counts/first_us_wave_counts.xlsx
+++ b/docs/trends-paper/wave-counts/us-wave-counts/first_us_wave_counts.xlsx
@@ -391,7 +391,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -414,66 +414,42 @@
     </row>
     <row r="2">
       <c r="A2" s="2">
-        <v>41960</v>
+        <v>41959</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2">
-        <v>41963</v>
+        <v>41966</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2">
-        <v>41967</v>
+        <v>41973</v>
       </c>
       <c r="B4">
-        <v>53</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2">
-        <v>41970</v>
+        <v>41980</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2">
-        <v>41974</v>
+        <v>41987</v>
       </c>
       <c r="B6">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2">
-        <v>41977</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2">
-        <v>41981</v>
-      </c>
-      <c r="B8">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2">
-        <v>41984</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/docs/trends-paper/wave-counts/us-wave-counts/first_us_wave_counts.xlsx
+++ b/docs/trends-paper/wave-counts/us-wave-counts/first_us_wave_counts.xlsx
@@ -356,7 +356,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -370,6 +370,11 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>criteria</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>n_protests</t>
         </is>
       </c>
@@ -377,10 +382,15 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BLM wave</t>
-        </is>
-      </c>
-      <c r="B2">
+          <t>First Wave (BLM 2014)</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>dates = late November/early December and racial_issue = "Police violence"</t>
+        </is>
+      </c>
+      <c r="C2">
         <v>213</v>
       </c>
     </row>

--- a/docs/trends-paper/wave-counts/us-wave-counts/first_us_wave_counts.xlsx
+++ b/docs/trends-paper/wave-counts/us-wave-counts/first_us_wave_counts.xlsx
@@ -382,7 +382,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>First Wave (BLM 2014)</t>
+          <t>First US Wave (BLM 2014)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
